--- a/JAPN/JAPN_modalities.xlsx
+++ b/JAPN/JAPN_modalities.xlsx
@@ -514,24 +514,24 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>25.66666666666667</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -546,17 +546,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>

--- a/JAPN/JAPN_modalities.xlsx
+++ b/JAPN/JAPN_modalities.xlsx
@@ -528,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>16.66666666666667</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
